--- a/tests/data/tables/model.strongselection.xlsx
+++ b/tests/data/tables/model.strongselection.xlsx
@@ -5,13 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="trajectory" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="genotype" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="sorted" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="unsorted" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="genotype" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="edges" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="score.derivative" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="score.greater" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="score.fixed" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="score.jaccard" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
   <si>
     <t xml:space="preserve">Trajectory</t>
   </si>
@@ -74,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">genotype-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
   </si>
 </sst>
 </file>
@@ -176,9 +183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
+      <xdr:colOff>493920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -192,7 +199,217 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32760" y="1224720"/>
-          <a:ext cx="8691120" cy="7246800"/>
+          <a:ext cx="8688600" cy="7245000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>641520</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2258640" y="1301040"/>
+          <a:ext cx="8688600" cy="7245000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>616680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>634680</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2670120" y="1713240"/>
+          <a:ext cx="8689680" cy="7245000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>634680</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1858320" y="1488240"/>
+          <a:ext cx="8688600" cy="7245000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>813240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>401760</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="813240" y="1463400"/>
+          <a:ext cx="8687160" cy="7245000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>383760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400320</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2437920" y="1950840"/>
+          <a:ext cx="8686800" cy="7245000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2399,7 +2616,7 @@
   </sheetPr>
   <dimension ref="A1:CW7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4591,7 +4808,7 @@
   <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6765,6 +6982,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6850,4 +7068,734 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>